--- a/ig/eclairereviewdate-change-type-instant/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/eclairereviewdate-change-type-instant/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T12:20:42+00:00</t>
+    <t>2023-08-23T12:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/eclairereviewdate-change-type-instant/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/eclairereviewdate-change-type-instant/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T12:56:18+00:00</t>
+    <t>2023-08-23T13:16:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
